--- a/pred_ohlcv/54_21/2019-10-13 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-13 PPT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-14718.5158</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-14718.5158</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-14718.5158</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-14618.5158</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-14118.5158</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-23243.7979</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-22383.9345</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-24962.2674</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-23739.04760000001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-25716.99690000001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-25716.99690000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-25121.0825</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-25668.5017</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-30084.88080000001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-30084.88080000001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-30083.88080000001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-31559.10410000001</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-30216.33510000001</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-31527.32980000001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-31527.32980000001</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-31913.66610000001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-31913.666</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-31913.666</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-31913.666</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-31913.666</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-31913.666</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-31912.666</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-32544.46710000001</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-32595.5936</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-34507.79930000001</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-34506.79930000001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-34326.79930000001</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-34450.79930000001</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-33832.13760000001</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-33116.71630000001</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-33215.9163</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-32473.1997</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-32502.1339</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-31574.1663</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-31574.1663</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-31678.4152</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-31518.4706</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-29386.18470000001</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-29386.18470000001</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-33168.44840000001</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-33951.98090000001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-33360.05070000001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-32426.04450000001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-32425.04450000001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-34166.6545</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-35110.6545</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-40329.8294</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-38803.7578</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-29890.3234</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>22426.36968414</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>14733.50038414</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>13499.32628414</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>7715.561284139997</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-303.3640158600028</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>10657.70548414</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>11557.20148414</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>11034.29288414</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>10934.29288414</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>8843.292884139995</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>8843.292884139995</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>8935.115684139995</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>36062.35018414</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>60886.67548414</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>63970.13258414</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>64750.20858414</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>78014.18758413999</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>90870.95918414</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>84156.62678414</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>80359.03848413999</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>73807.15878413999</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>73808.15878413999</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>83471.48008413998</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>82703.33698413998</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>99411.91878414</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>99410.91878414</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>99410.91878414</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>99385.91878414</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>100241.18938414</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>100213.00388414</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>100213.00388414</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>99204.71168414</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>96352.22218414</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>94512.93328414</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>95059.50448414001</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>94859.00448414001</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>94859.00448414001</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>94005.74708414001</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>81222.01018414</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>82722.81018414001</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>81803.28118414001</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>91590.00218414003</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>90700.24628414004</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>91487.29138414004</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>89339.17018414005</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>99692.96558414008</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>99723.96558414008</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>97381.02588414008</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>93879.99608414008</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>90481.50588414008</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-13 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-13 PPT ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>-31913.666</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-31913.666</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-31913.666</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-31913.666</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-31912.666</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-32544.46710000001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-32595.5936</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-34507.79930000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-34506.79930000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-34326.79930000001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-34450.79930000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-33832.13760000001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-33116.71630000001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-33215.9163</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-32473.1997</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-32502.1339</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-31574.1663</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-31574.1663</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-31678.4152</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-31518.4706</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-29386.18470000001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-29386.18470000001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-30251.88470000001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-33751.15470000001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-34400.0937</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-33168.44840000001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-33168.44840000001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-34567.6545</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-40329.8294</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-39957.9227</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-39745.0829</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-29890.3234</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>22426.36968414</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>14733.50038414</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>13499.32628414</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>7715.561284139997</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-303.3640158600028</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>10657.70548414</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>11557.20148414</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>11034.29288414</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>10934.29288414</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>8843.292884139995</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>8843.292884139995</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>8935.115684139995</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>36062.35018414</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>60886.67548414</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>63970.13258414</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>64750.20858414</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>78014.18758413999</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>90870.95918414</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>84156.62678414</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>80359.03848413999</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>73807.15878413999</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>73808.15878413999</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>83471.48008413998</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>82703.33698413998</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>93428.67588413997</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>104714.13828414</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>100574.67178414</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>98144.24148413999</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>98136.24148413999</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>98111.07638413999</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>101062.79578414</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>99411.91878414</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>99410.91878414</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>99410.91878414</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>99385.91878414</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>100241.18938414</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>100213.00388414</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>100213.00388414</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>99204.71168414</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>96352.22218414</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>94512.93328414</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>94859.00448414001</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>94859.00448414001</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>94005.74708414001</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>81222.01018414</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
